--- a/public/Modelo.xlsx
+++ b/public/Modelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mmari\Desktop\pruebaFD\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mmari\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FEB5E9-0F2F-4140-8A1F-4BBCFFD2DC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22012DE-0EA4-4614-B0B1-084B42893870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{900F7686-3666-4140-90D9-5E94DFB2106B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03475117-F0B4-43B7-9A7E-9B5836F011F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>marca</t>
   </si>
   <si>
+    <t>modelo</t>
+  </si>
+  <si>
     <t>anio</t>
   </si>
   <si>
-    <t>modelo</t>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>franquicia</t>
+  </si>
+  <si>
+    <t>patente</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>chasis</t>
   </si>
 </sst>
 </file>
@@ -415,24 +430,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC541BD7-BA84-4B2C-98FE-E8F7E2F01795}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C0CB04-750E-4602-A4F0-2E90FC255ADA}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
